--- a/xlsx/德克萨斯州_intext.xlsx
+++ b/xlsx/德克萨斯州_intext.xlsx
@@ -15,1689 +15,1695 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="563">
   <si>
     <t>德克萨斯州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>得克萨斯州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
+  </si>
+  <si>
+    <t>奥斯汀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E6%95%A6</t>
+  </si>
+  <si>
+    <t>休斯敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Texas</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E6%A0%BC%C2%B7%E9%98%BF%E5%8D%9A%E7%89%B9</t>
+  </si>
+  <si>
+    <t>格雷格·阿博特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Texas</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of Texas</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dan_Patrick</t>
+  </si>
+  <si>
+    <t>en-Dan Patrick</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Texas</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%BA%B7%E5%AF%A7</t>
+  </si>
+  <si>
+    <t>约翰·康宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E5%85%8B%E9%B2%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>泰德·克鲁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Texas</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%AD%E9%83%A8%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美中部时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
+  </si>
+  <si>
+    <t>UTC-5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美洲原住民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E5%8F%B3%E9%8A%98</t>
+  </si>
+  <si>
+    <t>座右铭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>法属德克萨斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>西属德克萨斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>墨西哥历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国墨西哥湾沿岸地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3</t>
+  </si>
+  <si>
+    <t>路易西安那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣安东尼奥 (德克萨斯州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>新西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E7%B4%8D%E8%B3%BC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>路易西安纳购地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%98%BF%E9%9F%8B%E6%8B%89%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科阿韦拉州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>得克萨斯共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>得克萨斯革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>拿破仑一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%8E%AB_(%E5%BE%97%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7)</t>
+  </si>
+  <si>
+    <t>阿拉莫 (得克萨斯州圣安东尼奥)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
+  </si>
+  <si>
+    <t>休士顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%C2%B7%E4%BC%91%E6%96%AF%E6%95%A6</t>
+  </si>
+  <si>
+    <t>山姆·休斯敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德克萨斯共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>尤卡坦共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>格兰德河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>南北战争</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Spindletop</t>
+  </si>
+  <si>
+    <t>en-Spindletop</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%92%99%E7%89%B9_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>博蒙特 (德克萨斯州)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/East_Texas_Oil_Field</t>
+  </si>
+  <si>
+    <t>en-East Texas Oil Field</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/West_Texas</t>
+  </si>
+  <si>
+    <t>en-West Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>墨西哥湾</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Texas_oil_boom</t>
+  </si>
+  <si>
+    <t>en-Texas oil boom</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8%E5%93%88%E7%B6%AD</t>
+  </si>
+  <si>
+    <t>飓风哈维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%85%8B%C2%B7%E4%BD%A9%E9%87%8C</t>
+  </si>
+  <si>
+    <t>里克·佩里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>民事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%B9%B4%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%8D%80</t>
+  </si>
+  <si>
+    <t>选区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%98%B2%E9%B6%87</t>
+  </si>
+  <si>
+    <t>小嘲鸫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B0%E7%8B%B3%E7%A7%91</t>
+  </si>
+  <si>
+    <t>犰狳科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易西安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>大弯曲国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E9%AD%AF%E6%B2%9B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>瓜达鲁沛山国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>得克萨斯州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF-%E6%B2%83%E6%96%AF%E5%A0%A1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>达拉斯-沃斯堡国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>美国航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%96%AC%E6%B2%BB%E5%B8%83%E5%B8%8C%E6%B4%B2%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>休士顿乔治布希洲际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E9%99%B8%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>美国大陆航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I-45</t>
+  </si>
+  <si>
+    <t>I-45</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>达拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E8%81%96%E9%AB%94%E5%B8%82</t>
+  </si>
+  <si>
+    <t>基督圣体市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I-35</t>
+  </si>
+  <si>
+    <t>I-35</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>沃斯堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I-10</t>
+  </si>
+  <si>
+    <t>I-10</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I-20</t>
+  </si>
+  <si>
+    <t>I-20</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I-30</t>
+  </si>
+  <si>
+    <t>I-30</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I-40</t>
+  </si>
+  <si>
+    <t>I-40</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E4%BA%95</t>
+  </si>
+  <si>
+    <t>油井</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>世界银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>国际货币基金组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B41%E6%9C%88</t>
+  </si>
+  <si>
+    <t>2013年1月</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A%E7%8E%87</t>
+  </si>
+  <si>
+    <t>失业率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C500%E5%BC%BA</t>
+  </si>
+  <si>
+    <t>财富500强</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94</t>
+  </si>
+  <si>
+    <t>拉丁裔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
+  </si>
+  <si>
+    <t>南韩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚裔美国人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Native_Americans_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Native Americans in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%97%8F</t>
+  </si>
+  <si>
+    <t>夏威夷族</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pacific_Islander</t>
+  </si>
+  <si>
+    <t>en-Pacific Islander</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Race_and_ethnicity_in_the_United_States_Census</t>
+  </si>
+  <si>
+    <t>en-Race and ethnicity in the United States Census</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Multiracial_American</t>
+  </si>
+  <si>
+    <t>en-Multiracial American</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>浸信会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
+  </si>
+  <si>
+    <t>罗马天主教会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
+  </si>
+  <si>
+    <t>循道宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/V-22</t>
+  </si>
+  <si>
+    <t>V-22</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>德克萨斯城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9F%8E_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>大学城 (德克萨斯州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%80%AB%E5%B8%82</t>
+  </si>
+  <si>
+    <t>嘉伦市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93</t>
+  </si>
+  <si>
+    <t>阿灵顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E5%A2%83</t>
+  </si>
+  <si>
+    <t>美墨边境</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%9B%B7%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>拉雷多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
+  </si>
+  <si>
+    <t>种族隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>德克萨斯大学系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8%E9%98%BF%E9%9D%88%E9%A0%93%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>德克萨斯大学阿灵顿分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%A4%A7%E5%AD%B8%E9%81%94%E6%8B%89%E6%96%AF%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>德克萨斯州大学达拉斯分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/San_Antonio,_Texas</t>
+  </si>
+  <si>
+    <t>San Antonio, Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德克萨斯理工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BC%AF%E5%85%8B_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>拉伯克 (得克萨斯州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>休士顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>贝勒大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>莱斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%8D%AB%E7%90%86%E5%85%AC%E4%BC%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南方卫理公会大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德克萨斯州基督教大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E4%B8%89%E4%B8%80%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>南方三一大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E6%B5%B8%E4%BF%A1%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>达拉斯浸信会大学</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Dallas_Baptist_University</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Texas_Wesleyan_University</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NFL</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E7%89%9B%E4%BB%94</t>
+  </si>
+  <si>
+    <t>达拉斯牛仔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%BE%B7%E5%B7%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>休士顿德州人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>全国大学体育协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德克萨斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德克萨斯州立大学</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Southern_Methodist_University</t>
+  </si>
+  <si>
+    <t>南美以美大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职棒大联盟</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Major_League_Baseball</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>休士顿太空人</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Houston_Astros</t>
+  </si>
+  <si>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
+  </si>
+  <si>
+    <t>德克萨斯游骑兵 (棒球)</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Texas_Rangers_%28baseball%29</t>
+  </si>
+  <si>
+    <t>Texas Rangers</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Minor_League_Baseball</t>
+  </si>
+  <si>
+    <t>MiLB</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Round_Rock_Express</t>
+  </si>
+  <si>
+    <t>Round Rock Express</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B2%B8%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>太平洋岸联盟</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Pacific_Coast_League</t>
+  </si>
+  <si>
+    <t>Pacific Coast League</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Texas_League</t>
+  </si>
+  <si>
+    <t>Texas League</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
+  </si>
+  <si>
+    <t>西雅图水手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%81%8B%E5%8B%95%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>奥克兰运动家</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Frisco_RoughRiders</t>
+  </si>
+  <si>
+    <t>Frisco RoughRiders</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E5%B0%8F%E7%89%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>达拉斯小牛队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E7%81%AB%E7%AE%AD%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>休士顿火箭队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%E9%A9%AC%E5%88%BA%E9%98%9F</t>
+  </si>
+  <si>
+    <t>圣安东尼奥马刺队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WNBA</t>
+  </si>
+  <si>
+    <t>WNBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NHL</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%B1%B3%C2%B7%E6%9D%8E%C2%B7%E7%93%8A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>汤米·李·琼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BF%AE%C2%B7%E9%BA%A5%E5%BA%B7%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>马修·麦康纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E5%92%AA%C2%B7%E6%B4%9B%E7%93%A6%E6%89%98</t>
+  </si>
+  <si>
+    <t>黛咪·洛瓦托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
+  </si>
+  <si>
+    <t>乔治·沃克·布希</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E8%B2%9D%E6%81%A9%E6%96%AF%C2%B7%E8%A9%B9%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>林登·贝恩斯·詹森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E7%BB%B4%C2%B7%E9%9B%B7%C2%B7%E6%B2%83%E6%81%A9</t>
+  </si>
+  <si>
+    <t>史蒂维·雷·沃恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
+  </si>
+  <si>
+    <t>兰斯·阿姆斯特朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E7%90%B3%E5%A8%9C%C2%B7%E6%88%88%E6%A2%85%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>赛琳娜·戈梅兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%C2%B7%E9%98%BF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>艾米·阿克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%C2%B7%E5%A4%8F%E5%B8%8C</t>
+  </si>
+  <si>
+    <t>莎拉·夏希</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A2%A7%E6%98%82%E4%B8%9D%C2%B7%E8%AF%BA%E5%B0%94%E6%96%AF</t>
+  </si>
+  <si>
+    <t>碧昂丝·诺尔斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E5%87%B1%E7%88%BE</t>
+  </si>
+  <si>
+    <t>克里斯·凯尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E7%8B%AC%E7%AB%8B%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>德克萨斯独立运动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Handbook_of_Texas</t>
+  </si>
+  <si>
+    <t>en-Handbook of Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Yale_University_Press</t>
+  </si>
+  <si>
+    <t>Yale University Press</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>开放式目录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>得克萨斯州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
-  </si>
-  <si>
-    <t>奧斯汀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E6%95%A6</t>
-  </si>
-  <si>
-    <t>休斯敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Texas</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E6%A0%BC%C2%B7%E9%98%BF%E5%8D%9A%E7%89%B9</t>
-  </si>
-  <si>
-    <t>格雷格·阿博特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Texas</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of Texas</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dan_Patrick</t>
-  </si>
-  <si>
-    <t>en-Dan Patrick</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Texas</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%BA%B7%E5%AF%A7</t>
-  </si>
-  <si>
-    <t>約翰·康寧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E5%85%8B%E9%B2%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>泰德·克鲁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Texas</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%AD%E9%83%A8%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美中部时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
-  </si>
-  <si>
-    <t>UTC-6</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
-  </si>
-  <si>
-    <t>UTC-5</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
-  </si>
-  <si>
-    <t>UTC-7</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美洲原住民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E5%8F%B3%E9%8A%98</t>
-  </si>
-  <si>
-    <t>座右銘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>考古學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>法屬德克薩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>西屬德克薩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>墨西哥历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國墨西哥灣沿岸地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3</t>
-  </si>
-  <si>
-    <t>路易西安那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>新西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E7%B4%8D%E8%B3%BC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>路易西安納購地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%98%BF%E9%9F%8B%E6%8B%89%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科阿韋拉州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>得克萨斯共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>得克萨斯革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>拿破仑一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%8E%AB_(%E5%BE%97%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7)</t>
-  </si>
-  <si>
-    <t>阿拉莫 (得克薩斯州聖安東尼奧)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
-  </si>
-  <si>
-    <t>休士頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%C2%B7%E4%BC%91%E6%96%AF%E6%95%A6</t>
-  </si>
-  <si>
-    <t>山姆·休斯敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德克薩斯共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>尤卡坦共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>格蘭德河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>南北戰爭</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Spindletop</t>
-  </si>
-  <si>
-    <t>en-Spindletop</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%92%99%E7%89%B9_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>博蒙特 (德克薩斯州)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/East_Texas_Oil_Field</t>
-  </si>
-  <si>
-    <t>en-East Texas Oil Field</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/West_Texas</t>
-  </si>
-  <si>
-    <t>en-West Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>墨西哥湾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Texas_oil_boom</t>
-  </si>
-  <si>
-    <t>en-Texas oil boom</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>羅納德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8%E5%93%88%E7%B6%AD</t>
-  </si>
-  <si>
-    <t>颶風哈維</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三權分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%85%8B%C2%B7%E4%BD%A9%E9%87%8C</t>
-  </si>
-  <si>
-    <t>里克·佩里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>民事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%B9%B4%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>成年人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%8D%80</t>
-  </si>
-  <si>
-    <t>選區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%98%B2%E9%B6%87</t>
-  </si>
-  <si>
-    <t>小嘲鶇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B0%E7%8B%B3%E7%A7%91</t>
-  </si>
-  <si>
-    <t>犰狳科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易西安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>大彎曲國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E9%AD%AF%E6%B2%9B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>瓜達魯沛山國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>得克萨斯州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF-%E6%B2%83%E6%96%AF%E5%A0%A1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>達拉斯-沃斯堡國際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>美國航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%96%AC%E6%B2%BB%E5%B8%83%E5%B8%8C%E6%B4%B2%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>休士頓喬治布希洲際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E9%99%B8%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>美國大陸航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I-45</t>
-  </si>
-  <si>
-    <t>I-45</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>達拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E8%81%96%E9%AB%94%E5%B8%82</t>
-  </si>
-  <si>
-    <t>基督聖體市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I-35</t>
-  </si>
-  <si>
-    <t>I-35</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>沃斯堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I-10</t>
-  </si>
-  <si>
-    <t>I-10</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I-20</t>
-  </si>
-  <si>
-    <t>I-20</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I-30</t>
-  </si>
-  <si>
-    <t>I-30</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I-40</t>
-  </si>
-  <si>
-    <t>I-40</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E4%BA%95</t>
-  </si>
-  <si>
-    <t>油井</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>世界银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>国际货币基金组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B41%E6%9C%88</t>
-  </si>
-  <si>
-    <t>2013年1月</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A%E7%8E%87</t>
-  </si>
-  <si>
-    <t>失业率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C500%E5%BC%BA</t>
-  </si>
-  <si>
-    <t>财富500强</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94</t>
-  </si>
-  <si>
-    <t>拉丁裔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
-  </si>
-  <si>
-    <t>南韓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美國白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非裔美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亞裔美國人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Native_Americans_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Native Americans in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%97%8F</t>
-  </si>
-  <si>
-    <t>夏威夷族</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pacific_Islander</t>
-  </si>
-  <si>
-    <t>en-Pacific Islander</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Race_and_ethnicity_in_the_United_States_Census</t>
-  </si>
-  <si>
-    <t>en-Race and ethnicity in the United States Census</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Multiracial_American</t>
-  </si>
-  <si>
-    <t>en-Multiracial American</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>浸信會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>羅馬天主教會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
-  </si>
-  <si>
-    <t>循道宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/V-22</t>
-  </si>
-  <si>
-    <t>V-22</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>德克薩斯城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9F%8E_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>大學城 (德克薩斯州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%80%AB%E5%B8%82</t>
-  </si>
-  <si>
-    <t>嘉倫市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93</t>
-  </si>
-  <si>
-    <t>阿靈頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
-  </si>
-  <si>
-    <t>墨西哥灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E5%A2%83</t>
-  </si>
-  <si>
-    <t>美墨邊境</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%9B%B7%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>拉雷多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
-  </si>
-  <si>
-    <t>种族隔离</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>德克薩斯大學系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8%E9%98%BF%E9%9D%88%E9%A0%93%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>德克薩斯大學阿靈頓分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%A4%A7%E5%AD%B8%E9%81%94%E6%8B%89%E6%96%AF%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>德克薩斯州大學達拉斯分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/San_Antonio,_Texas</t>
-  </si>
-  <si>
-    <t>San Antonio, Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德克薩斯理工大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BC%AF%E5%85%8B_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>拉伯克 (得克萨斯州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>休士頓大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>貝勒大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>萊斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%8D%AB%E7%90%86%E5%85%AC%E4%BC%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南方卫理公会大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德克薩斯州基督教大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E4%B8%89%E4%B8%80%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>南方三一大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E6%B5%B8%E4%BF%A1%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>達拉斯浸信會大學</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Dallas_Baptist_University</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Texas_Wesleyan_University</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NFL</t>
-  </si>
-  <si>
-    <t>NFL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E7%89%9B%E4%BB%94</t>
-  </si>
-  <si>
-    <t>達拉斯牛仔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%BE%B7%E5%B7%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>休士頓德州人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>全國大學體育協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德克薩斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德克薩斯州立大學</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Southern_Methodist_University</t>
-  </si>
-  <si>
-    <t>南美以美大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職棒大聯盟</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Major_League_Baseball</t>
-  </si>
-  <si>
-    <t>MLB</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>休士頓太空人</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Houston_Astros</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>國家聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
-  </si>
-  <si>
-    <t>德克薩斯遊騎兵 (棒球)</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Texas_Rangers_%28baseball%29</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Minor_League_Baseball</t>
-  </si>
-  <si>
-    <t>MiLB</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Round_Rock_Express</t>
-  </si>
-  <si>
-    <t>Round Rock Express</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B2%B8%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>太平洋岸聯盟</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Pacific_Coast_League</t>
-  </si>
-  <si>
-    <t>Pacific Coast League</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Texas_League</t>
-  </si>
-  <si>
-    <t>Texas League</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
-  </si>
-  <si>
-    <t>西雅圖水手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%81%8B%E5%8B%95%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>奧克蘭運動家</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Frisco_RoughRiders</t>
-  </si>
-  <si>
-    <t>Frisco RoughRiders</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E5%B0%8F%E7%89%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>達拉斯小牛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E7%81%AB%E7%AE%AD%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>休士頓火箭隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%E9%A9%AC%E5%88%BA%E9%98%9F</t>
-  </si>
-  <si>
-    <t>圣安东尼奥马刺队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WNBA</t>
-  </si>
-  <si>
-    <t>WNBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NHL</t>
-  </si>
-  <si>
-    <t>NHL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%B1%B3%C2%B7%E6%9D%8E%C2%B7%E7%93%8A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>湯米·李·瓊斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BF%AE%C2%B7%E9%BA%A5%E5%BA%B7%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>馬修·麥康納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E5%92%AA%C2%B7%E6%B4%9B%E7%93%A6%E6%89%98</t>
-  </si>
-  <si>
-    <t>黛咪·洛瓦托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
-  </si>
-  <si>
-    <t>喬治·沃克·布希</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E8%B2%9D%E6%81%A9%E6%96%AF%C2%B7%E8%A9%B9%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>林登·貝恩斯·詹森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E7%BB%B4%C2%B7%E9%9B%B7%C2%B7%E6%B2%83%E6%81%A9</t>
-  </si>
-  <si>
-    <t>史蒂维·雷·沃恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
-  </si>
-  <si>
-    <t>兰斯·阿姆斯特朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E7%90%B3%E5%A8%9C%C2%B7%E6%88%88%E6%A2%85%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>賽琳娜·戈梅茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%C2%B7%E9%98%BF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>艾米·阿克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%C2%B7%E5%A4%8F%E5%B8%8C</t>
-  </si>
-  <si>
-    <t>莎拉·夏希</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A2%A7%E6%98%82%E4%B8%9D%C2%B7%E8%AF%BA%E5%B0%94%E6%96%AF</t>
-  </si>
-  <si>
-    <t>碧昂丝·诺尔斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E5%87%B1%E7%88%BE</t>
-  </si>
-  <si>
-    <t>克里斯·凱爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E7%8B%AC%E7%AB%8B%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>德克萨斯独立运动</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Handbook_of_Texas</t>
-  </si>
-  <si>
-    <t>en-Handbook of Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Yale_University_Press</t>
-  </si>
-  <si>
-    <t>Yale University Press</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
-  </si>
-  <si>
-    <t>开放式目录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>维基导游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2506,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -6273,7 +6279,7 @@
         <v>291</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6299,10 +6305,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6328,10 +6334,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6357,10 +6363,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6386,10 +6392,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6415,10 +6421,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6444,10 +6450,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6473,10 +6479,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6502,10 +6508,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6531,10 +6537,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6560,10 +6566,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>6</v>
@@ -6589,10 +6595,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6618,10 +6624,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6647,10 +6653,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -6676,10 +6682,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6705,10 +6711,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6734,10 +6740,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6763,10 +6769,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6792,10 +6798,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6821,10 +6827,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6850,10 +6856,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6879,10 +6885,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6908,10 +6914,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6937,10 +6943,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6966,10 +6972,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6995,10 +7001,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>13</v>
@@ -7024,10 +7030,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7053,10 +7059,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7082,10 +7088,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7111,10 +7117,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7140,10 +7146,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7169,10 +7175,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7198,10 +7204,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7227,10 +7233,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7256,10 +7262,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7285,10 +7291,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7314,10 +7320,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7343,10 +7349,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7372,10 +7378,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7401,10 +7407,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7430,10 +7436,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7459,10 +7465,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7488,10 +7494,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7517,10 +7523,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7546,10 +7552,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7575,10 +7581,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7604,10 +7610,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7633,10 +7639,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7662,10 +7668,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7691,10 +7697,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7720,10 +7726,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
         <v>391</v>
-      </c>
-      <c r="F196" t="s">
-        <v>392</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7749,10 +7755,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
         <v>393</v>
-      </c>
-      <c r="F197" t="s">
-        <v>394</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7778,10 +7784,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
         <v>395</v>
-      </c>
-      <c r="F198" t="s">
-        <v>396</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7807,10 +7813,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
         <v>397</v>
-      </c>
-      <c r="F199" t="s">
-        <v>398</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7836,10 +7842,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
         <v>399</v>
-      </c>
-      <c r="F200" t="s">
-        <v>400</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7865,10 +7871,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
         <v>401</v>
-      </c>
-      <c r="F201" t="s">
-        <v>402</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7894,10 +7900,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
         <v>403</v>
-      </c>
-      <c r="F202" t="s">
-        <v>404</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7923,10 +7929,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>406</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7952,10 +7958,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
         <v>407</v>
-      </c>
-      <c r="F204" t="s">
-        <v>408</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7981,10 +7987,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
         <v>409</v>
-      </c>
-      <c r="F205" t="s">
-        <v>410</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8010,10 +8016,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
         <v>411</v>
-      </c>
-      <c r="F206" t="s">
-        <v>412</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8039,10 +8045,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
         <v>413</v>
-      </c>
-      <c r="F207" t="s">
-        <v>414</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8068,10 +8074,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
         <v>415</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8097,10 +8103,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8126,10 +8132,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8155,10 +8161,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -8184,10 +8190,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8213,10 +8219,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8242,10 +8248,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8271,10 +8277,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8300,10 +8306,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8329,13 +8335,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
       </c>
-      <c r="F217" t="s">
-        <v>434</v>
-      </c>
       <c r="G217" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8358,10 +8364,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8387,10 +8393,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8474,10 +8480,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>438</v>
+      </c>
+      <c r="F222" t="s">
         <v>439</v>
-      </c>
-      <c r="F222" t="s">
-        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8503,10 +8509,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>440</v>
+      </c>
+      <c r="F223" t="s">
         <v>441</v>
-      </c>
-      <c r="F223" t="s">
-        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8532,10 +8538,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" t="s">
         <v>443</v>
-      </c>
-      <c r="F224" t="s">
-        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8561,10 +8567,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" t="s">
         <v>445</v>
-      </c>
-      <c r="F225" t="s">
-        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8590,10 +8596,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>446</v>
+      </c>
+      <c r="F226" t="s">
         <v>447</v>
-      </c>
-      <c r="F226" t="s">
-        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8619,10 +8625,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-      <c r="F227" t="s">
-        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8648,10 +8654,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>450</v>
+      </c>
+      <c r="F228" t="s">
         <v>451</v>
-      </c>
-      <c r="F228" t="s">
-        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8677,10 +8683,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>452</v>
+      </c>
+      <c r="F229" t="s">
         <v>453</v>
-      </c>
-      <c r="F229" t="s">
-        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8706,10 +8712,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>454</v>
+      </c>
+      <c r="F230" t="s">
         <v>455</v>
-      </c>
-      <c r="F230" t="s">
-        <v>456</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8735,10 +8741,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>456</v>
+      </c>
+      <c r="F231" t="s">
         <v>457</v>
-      </c>
-      <c r="F231" t="s">
-        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8764,10 +8770,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>458</v>
+      </c>
+      <c r="F232" t="s">
         <v>459</v>
-      </c>
-      <c r="F232" t="s">
-        <v>460</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8793,10 +8799,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>460</v>
+      </c>
+      <c r="F233" t="s">
         <v>461</v>
-      </c>
-      <c r="F233" t="s">
-        <v>462</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8851,10 +8857,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>462</v>
+      </c>
+      <c r="F235" t="s">
         <v>463</v>
-      </c>
-      <c r="F235" t="s">
-        <v>464</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8880,10 +8886,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>464</v>
+      </c>
+      <c r="F236" t="s">
         <v>465</v>
-      </c>
-      <c r="F236" t="s">
-        <v>466</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8909,10 +8915,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>466</v>
+      </c>
+      <c r="F237" t="s">
         <v>467</v>
-      </c>
-      <c r="F237" t="s">
-        <v>468</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8938,10 +8944,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>468</v>
+      </c>
+      <c r="F238" t="s">
         <v>469</v>
-      </c>
-      <c r="F238" t="s">
-        <v>470</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8967,10 +8973,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>470</v>
+      </c>
+      <c r="F239" t="s">
         <v>471</v>
-      </c>
-      <c r="F239" t="s">
-        <v>472</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8996,10 +9002,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>472</v>
+      </c>
+      <c r="F240" t="s">
         <v>473</v>
-      </c>
-      <c r="F240" t="s">
-        <v>474</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -9025,10 +9031,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>474</v>
+      </c>
+      <c r="F241" t="s">
         <v>475</v>
-      </c>
-      <c r="F241" t="s">
-        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9054,10 +9060,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>476</v>
+      </c>
+      <c r="F242" t="s">
         <v>477</v>
-      </c>
-      <c r="F242" t="s">
-        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9083,10 +9089,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>478</v>
+      </c>
+      <c r="F243" t="s">
         <v>479</v>
-      </c>
-      <c r="F243" t="s">
-        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9112,10 +9118,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>480</v>
+      </c>
+      <c r="F244" t="s">
         <v>481</v>
-      </c>
-      <c r="F244" t="s">
-        <v>482</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9141,10 +9147,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>482</v>
+      </c>
+      <c r="F245" t="s">
         <v>483</v>
-      </c>
-      <c r="F245" t="s">
-        <v>484</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9170,10 +9176,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>484</v>
+      </c>
+      <c r="F246" t="s">
         <v>485</v>
-      </c>
-      <c r="F246" t="s">
-        <v>486</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9257,10 +9263,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>486</v>
+      </c>
+      <c r="F249" t="s">
         <v>487</v>
-      </c>
-      <c r="F249" t="s">
-        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9286,10 +9292,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>488</v>
+      </c>
+      <c r="F250" t="s">
         <v>489</v>
-      </c>
-      <c r="F250" t="s">
-        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9315,10 +9321,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>490</v>
+      </c>
+      <c r="F251" t="s">
         <v>491</v>
-      </c>
-      <c r="F251" t="s">
-        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9373,10 +9379,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>492</v>
+      </c>
+      <c r="F253" t="s">
         <v>493</v>
-      </c>
-      <c r="F253" t="s">
-        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9402,10 +9408,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" t="s">
         <v>495</v>
-      </c>
-      <c r="F254" t="s">
-        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9431,10 +9437,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>496</v>
+      </c>
+      <c r="F255" t="s">
         <v>497</v>
-      </c>
-      <c r="F255" t="s">
-        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9460,10 +9466,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>498</v>
+      </c>
+      <c r="F256" t="s">
         <v>499</v>
-      </c>
-      <c r="F256" t="s">
-        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9489,10 +9495,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>500</v>
+      </c>
+      <c r="F257" t="s">
         <v>501</v>
-      </c>
-      <c r="F257" t="s">
-        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9518,10 +9524,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>502</v>
+      </c>
+      <c r="F258" t="s">
         <v>503</v>
-      </c>
-      <c r="F258" t="s">
-        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9547,10 +9553,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>504</v>
+      </c>
+      <c r="F259" t="s">
         <v>505</v>
-      </c>
-      <c r="F259" t="s">
-        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9576,10 +9582,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>506</v>
+      </c>
+      <c r="F260" t="s">
         <v>507</v>
-      </c>
-      <c r="F260" t="s">
-        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9605,10 +9611,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>508</v>
+      </c>
+      <c r="F261" t="s">
         <v>509</v>
-      </c>
-      <c r="F261" t="s">
-        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9634,10 +9640,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>510</v>
+      </c>
+      <c r="F262" t="s">
         <v>511</v>
-      </c>
-      <c r="F262" t="s">
-        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9663,10 +9669,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>512</v>
+      </c>
+      <c r="F263" t="s">
         <v>513</v>
-      </c>
-      <c r="F263" t="s">
-        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9692,10 +9698,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>514</v>
+      </c>
+      <c r="F264" t="s">
         <v>515</v>
-      </c>
-      <c r="F264" t="s">
-        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9721,10 +9727,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>516</v>
+      </c>
+      <c r="F265" t="s">
         <v>517</v>
-      </c>
-      <c r="F265" t="s">
-        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9750,10 +9756,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>518</v>
+      </c>
+      <c r="F266" t="s">
         <v>519</v>
-      </c>
-      <c r="F266" t="s">
-        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9779,10 +9785,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>520</v>
+      </c>
+      <c r="F267" t="s">
         <v>521</v>
-      </c>
-      <c r="F267" t="s">
-        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9808,10 +9814,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>522</v>
+      </c>
+      <c r="F268" t="s">
         <v>523</v>
-      </c>
-      <c r="F268" t="s">
-        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9837,10 +9843,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>524</v>
+      </c>
+      <c r="F269" t="s">
         <v>525</v>
-      </c>
-      <c r="F269" t="s">
-        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9866,10 +9872,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>526</v>
+      </c>
+      <c r="F270" t="s">
         <v>527</v>
-      </c>
-      <c r="F270" t="s">
-        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9895,10 +9901,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>528</v>
+      </c>
+      <c r="F271" t="s">
         <v>529</v>
-      </c>
-      <c r="F271" t="s">
-        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9924,10 +9930,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>530</v>
+      </c>
+      <c r="F272" t="s">
         <v>531</v>
-      </c>
-      <c r="F272" t="s">
-        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9953,10 +9959,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>532</v>
+      </c>
+      <c r="F273" t="s">
         <v>533</v>
-      </c>
-      <c r="F273" t="s">
-        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9982,10 +9988,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>534</v>
+      </c>
+      <c r="F274" t="s">
         <v>535</v>
-      </c>
-      <c r="F274" t="s">
-        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10011,10 +10017,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>536</v>
+      </c>
+      <c r="F275" t="s">
         <v>537</v>
-      </c>
-      <c r="F275" t="s">
-        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10040,10 +10046,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>538</v>
+      </c>
+      <c r="F276" t="s">
         <v>539</v>
-      </c>
-      <c r="F276" t="s">
-        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10069,10 +10075,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>540</v>
+      </c>
+      <c r="F277" t="s">
         <v>541</v>
-      </c>
-      <c r="F277" t="s">
-        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10098,10 +10104,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>542</v>
+      </c>
+      <c r="F278" t="s">
         <v>543</v>
-      </c>
-      <c r="F278" t="s">
-        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10127,10 +10133,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>544</v>
+      </c>
+      <c r="F279" t="s">
         <v>545</v>
-      </c>
-      <c r="F279" t="s">
-        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10156,10 +10162,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>546</v>
+      </c>
+      <c r="F280" t="s">
         <v>547</v>
-      </c>
-      <c r="F280" t="s">
-        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10185,10 +10191,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>548</v>
+      </c>
+      <c r="F281" t="s">
         <v>549</v>
-      </c>
-      <c r="F281" t="s">
-        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10214,10 +10220,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>550</v>
+      </c>
+      <c r="F282" t="s">
         <v>551</v>
-      </c>
-      <c r="F282" t="s">
-        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10243,10 +10249,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>552</v>
+      </c>
+      <c r="F283" t="s">
         <v>553</v>
-      </c>
-      <c r="F283" t="s">
-        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10272,10 +10278,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>554</v>
+      </c>
+      <c r="F284" t="s">
         <v>555</v>
-      </c>
-      <c r="F284" t="s">
-        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10301,10 +10307,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>556</v>
+      </c>
+      <c r="F285" t="s">
         <v>557</v>
-      </c>
-      <c r="F285" t="s">
-        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10330,18 +10336,76 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>558</v>
+      </c>
+      <c r="F286" t="s">
         <v>559</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+      <c r="H286" t="s">
+        <v>4</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>286</v>
+      </c>
+      <c r="E287" t="s">
         <v>560</v>
       </c>
-      <c r="G286" t="n">
-        <v>1</v>
-      </c>
-      <c r="H286" t="s">
-        <v>4</v>
-      </c>
-      <c r="I286" t="n">
+      <c r="F287" t="s">
+        <v>561</v>
+      </c>
+      <c r="G287" t="n">
+        <v>11</v>
+      </c>
+      <c r="H287" t="s">
+        <v>4</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>287</v>
+      </c>
+      <c r="E288" t="s">
+        <v>560</v>
+      </c>
+      <c r="F288" t="s">
+        <v>562</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+      <c r="H288" t="s">
+        <v>4</v>
+      </c>
+      <c r="I288" t="n">
         <v>3</v>
       </c>
     </row>
